--- a/manuscript/tables/S2_clumps_finemap.xlsx
+++ b/manuscript/tables/S2_clumps_finemap.xlsx
@@ -1534,7 +1534,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7442,7 +7442,7 @@
         <v>36.2044788548658</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0000000017766177254306</v>
+        <v>0.00000000177661772543059</v>
       </c>
       <c r="M67" t="n">
         <v>2.04118380984267</v>
